--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/AdministrableProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/AdministrableProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -575,7 +575,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/admProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/admProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -671,7 +671,7 @@
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
     <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection').</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/PharmaceuticalDoseForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/PharmaceuticalDoseForm</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Administrable Dose Form</t>
@@ -708,7 +708,7 @@
     <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/unitofPresentation</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/unitofPresentation</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Unit of Presentation</t>
@@ -717,7 +717,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ManufacturedItemDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -867,7 +867,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyColor</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyColor</t>
   </si>
   <si>
     <t>flavor</t>
@@ -875,13 +875,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/vulcan-eproduct-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
     &lt;code value="flavor"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyFlavor</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyFlavor</t>
   </si>
   <si>
     <t>score</t>
@@ -895,7 +895,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyScore</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyScore</t>
   </si>
   <si>
     <t>shape</t>
@@ -909,7 +909,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/propertyShape</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/propertyShape</t>
   </si>
   <si>
     <t>surfaceform</t>
@@ -917,13 +917,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/uv/vulcan-eproduct-info/CodeSystem/gravitate"/&gt;
+    &lt;system value="http://hl7.org/fhir/uv/emedicinal-product-info/CodeSystem/gravitate"/&gt;
     &lt;code value="surfaceform"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/VsPropertySurfaceForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsPropertySurfaceForm</t>
   </si>
   <si>
     <t>size</t>
@@ -1327,7 +1327,7 @@
     <t>Coded expression for the route.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/routeOfAdministration</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/routeOfAdministration</t>
   </si>
   <si>
     <t>Route of Administration.Route of Administration</t>
@@ -1815,7 +1815,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -446,7 +446,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -523,7 +523,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -600,7 +600,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -668,7 +668,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.formOf</t>
@@ -1136,7 +1136,7 @@
     <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
@@ -1268,7 +1268,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/5.0.0-ballot/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/5.0.0-snapshot3/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A medicinal product in the final form, suitable for administration - after any mixing of multiple components</t>
@@ -2209,13 +2213,13 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2281,21 +2285,21 @@
         <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2306,7 +2310,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -2315,19 +2319,19 @@
         <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2377,13 +2381,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -2403,10 +2407,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2417,7 +2421,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -2426,16 +2430,16 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2486,19 +2490,19 @@
         <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -2512,10 +2516,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2526,28 +2530,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2597,19 +2601,19 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -2623,10 +2627,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2637,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2649,16 +2653,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2684,13 +2688,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2708,19 +2712,19 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2734,21 +2738,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2760,16 +2764,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2819,19 +2823,19 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -2840,19 +2844,19 @@
         <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2871,16 +2875,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2930,7 +2934,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2951,19 +2955,19 @@
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2982,16 +2986,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3041,7 +3045,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -3053,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -3062,19 +3066,19 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3087,25 +3091,25 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3154,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3166,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -3175,15 +3179,15 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3191,7 +3195,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -3203,16 +3207,16 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3263,7 +3267,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3275,13 +3279,13 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3289,10 +3293,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3303,7 +3307,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3315,13 +3319,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3372,13 +3376,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -3393,19 +3397,19 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3424,16 +3428,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3471,19 +3475,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3495,7 +3499,7 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3504,15 +3508,15 @@
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3523,31 +3527,31 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3572,11 +3576,11 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3594,19 +3598,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3615,15 +3619,15 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3634,7 +3638,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3643,22 +3647,22 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3683,11 +3687,11 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3705,19 +3709,19 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3726,15 +3730,15 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3742,10 +3746,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3754,22 +3758,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3782,7 +3786,7 @@
         <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>77</v>
@@ -3794,11 +3798,11 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3816,19 +3820,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3837,15 +3841,15 @@
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3853,10 +3857,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3865,19 +3869,19 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3891,7 +3895,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3927,19 +3931,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3948,15 +3952,15 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3967,7 +3971,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3976,16 +3980,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4036,19 +4040,19 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4057,15 +4061,15 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4076,7 +4080,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4085,19 +4089,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4147,19 +4151,19 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -4168,15 +4172,15 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4184,31 +4188,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4234,13 +4238,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4258,22 +4262,22 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4284,10 +4288,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4307,16 +4311,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4367,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4379,10 +4383,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4393,10 +4397,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4407,7 +4411,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4416,16 +4420,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4452,11 +4456,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4474,22 +4478,22 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4500,10 +4504,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4514,7 +4518,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4523,16 +4527,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4559,11 +4563,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4581,22 +4585,22 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4607,10 +4611,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4630,16 +4634,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4690,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4702,10 +4706,10 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4716,10 +4720,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4739,16 +4743,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4775,13 +4779,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4799,7 +4803,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4811,10 +4815,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4825,10 +4829,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4839,7 +4843,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4848,16 +4852,16 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4908,22 +4912,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4934,10 +4938,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4957,16 +4961,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5005,17 +5009,17 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5027,10 +5031,10 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5041,10 +5045,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5055,7 +5059,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5067,13 +5071,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5124,13 +5128,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5145,19 +5149,19 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5176,16 +5180,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5235,7 +5239,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5247,7 +5251,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5256,19 +5260,19 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5281,25 +5285,25 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5348,7 +5352,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5360,7 +5364,7 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5369,15 +5373,15 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5385,10 +5389,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5397,16 +5401,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5433,13 +5437,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5457,22 +5461,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5483,10 +5487,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5497,7 +5501,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5506,16 +5510,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5566,22 +5570,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5592,10 +5596,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5606,7 +5610,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5615,16 +5619,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5651,13 +5655,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5675,22 +5679,22 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5701,13 +5705,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -5726,16 +5730,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5786,7 +5790,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5798,10 +5802,10 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5812,10 +5816,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5826,7 +5830,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5838,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5895,13 +5899,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5916,19 +5920,19 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5947,16 +5951,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6006,7 +6010,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6018,7 +6022,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6027,19 +6031,19 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6052,25 +6056,25 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6119,7 +6123,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6131,7 +6135,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6140,15 +6144,15 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6156,10 +6160,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6168,16 +6172,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6189,7 +6193,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6204,13 +6208,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6228,22 +6232,22 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6254,10 +6258,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6268,7 +6272,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6277,16 +6281,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6313,11 +6317,11 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6335,22 +6339,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6361,10 +6365,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6375,7 +6379,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6384,16 +6388,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6420,13 +6424,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6444,22 +6448,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6470,13 +6474,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -6495,16 +6499,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6555,7 +6559,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6567,10 +6571,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6581,10 +6585,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6595,7 +6599,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6607,13 +6611,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6664,13 +6668,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6685,19 +6689,19 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6716,16 +6720,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6775,7 +6779,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6787,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6796,19 +6800,19 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6821,25 +6825,25 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6888,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6900,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6909,15 +6913,15 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6925,10 +6929,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6937,16 +6941,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6958,7 +6962,7 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>77</v>
@@ -6973,13 +6977,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6997,22 +7001,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7023,10 +7027,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7037,7 +7041,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7046,16 +7050,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7082,11 +7086,11 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7104,22 +7108,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7130,10 +7134,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7144,7 +7148,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7153,16 +7157,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7189,13 +7193,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7213,22 +7217,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7239,13 +7243,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7264,16 +7268,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7324,7 +7328,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7336,10 +7340,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7350,10 +7354,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7364,7 +7368,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7376,13 +7380,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7433,13 +7437,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7454,19 +7458,19 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7485,16 +7489,16 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7544,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7556,7 +7560,7 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7565,19 +7569,19 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7590,25 +7594,25 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7657,7 +7661,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7669,7 +7673,7 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7678,15 +7682,15 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7694,10 +7698,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7706,16 +7710,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7727,7 +7731,7 @@
         <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>77</v>
@@ -7742,13 +7746,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7766,22 +7770,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,10 +7796,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7806,7 +7810,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7815,16 +7819,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7851,11 +7855,11 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7873,22 +7877,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7899,10 +7903,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7913,7 +7917,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7922,16 +7926,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7958,13 +7962,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7982,22 +7986,22 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8008,13 +8012,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8033,16 +8037,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8093,7 +8097,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8105,10 +8109,10 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8119,10 +8123,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8133,7 +8137,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8145,13 +8149,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8202,13 +8206,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8223,19 +8227,19 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8254,16 +8258,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8313,7 +8317,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8325,7 +8329,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8334,19 +8338,19 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8359,25 +8363,25 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8426,7 +8430,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8438,7 +8442,7 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8447,15 +8451,15 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8463,10 +8467,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8475,16 +8479,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8496,7 +8500,7 @@
         <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>77</v>
@@ -8511,13 +8515,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8535,22 +8539,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8561,10 +8565,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8575,7 +8579,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8584,16 +8588,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8620,11 +8624,11 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8642,22 +8646,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8668,10 +8672,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8682,7 +8686,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8691,16 +8695,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8727,13 +8731,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8751,22 +8755,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8777,13 +8781,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
@@ -8802,16 +8806,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8862,7 +8866,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8874,10 +8878,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8888,10 +8892,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8902,7 +8906,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8914,13 +8918,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8971,13 +8975,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8992,19 +8996,19 @@
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9023,16 +9027,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9082,7 +9086,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9094,7 +9098,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9103,19 +9107,19 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9128,25 +9132,25 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9195,7 +9199,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9207,7 +9211,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9216,15 +9220,15 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9232,10 +9236,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9244,16 +9248,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9265,7 +9269,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -9280,13 +9284,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9304,22 +9308,22 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9330,10 +9334,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9344,7 +9348,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9353,16 +9357,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9389,11 +9393,11 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9411,22 +9415,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9437,10 +9441,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9451,7 +9455,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9460,16 +9464,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9496,13 +9500,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9520,22 +9524,22 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9546,13 +9550,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>77</v>
@@ -9571,16 +9575,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9631,7 +9635,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9643,10 +9647,10 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9657,10 +9661,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9671,7 +9675,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9683,13 +9687,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9740,13 +9744,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -9761,19 +9765,19 @@
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9792,16 +9796,16 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9851,7 +9855,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9863,7 +9867,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9872,19 +9876,19 @@
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9897,25 +9901,25 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9964,7 +9968,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9976,7 +9980,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9985,15 +9989,15 @@
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10001,10 +10005,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10013,16 +10017,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10034,7 +10038,7 @@
         <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>77</v>
@@ -10049,13 +10053,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10073,22 +10077,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10099,10 +10103,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10113,7 +10117,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10122,16 +10126,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10182,22 +10186,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10208,10 +10212,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10222,7 +10226,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10231,16 +10235,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10267,13 +10271,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10291,22 +10295,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10317,13 +10321,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -10342,16 +10346,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10402,7 +10406,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10414,10 +10418,10 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10428,10 +10432,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10442,7 +10446,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10454,13 +10458,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10511,13 +10515,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -10532,19 +10536,19 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10563,16 +10567,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10622,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10634,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10643,19 +10647,19 @@
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10668,25 +10672,25 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10735,7 +10739,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10747,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10756,15 +10760,15 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10772,10 +10776,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10784,16 +10788,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10805,7 +10809,7 @@
         <v>77</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
@@ -10820,13 +10824,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10844,22 +10848,22 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10870,10 +10874,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10884,7 +10888,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10893,16 +10897,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10953,22 +10957,22 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -10979,10 +10983,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10993,7 +10997,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11005,13 +11009,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11062,13 +11066,13 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
@@ -11083,19 +11087,19 @@
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11114,16 +11118,16 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11161,19 +11165,19 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11185,7 +11189,7 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11194,15 +11198,15 @@
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11213,7 +11217,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11222,20 +11226,20 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11248,7 +11252,7 @@
         <v>77</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>77</v>
@@ -11260,13 +11264,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11284,19 +11288,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11305,15 +11309,15 @@
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11324,7 +11328,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11333,20 +11337,20 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11363,7 @@
         <v>77</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>77</v>
@@ -11371,13 +11375,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11395,19 +11399,19 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11416,15 +11420,15 @@
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11435,7 +11439,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11447,19 +11451,19 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11508,19 +11512,19 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -11529,15 +11533,15 @@
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11548,7 +11552,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11557,22 +11561,22 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11589,7 @@
         <v>77</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>77</v>
@@ -11621,19 +11625,19 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -11642,15 +11646,15 @@
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11661,7 +11665,7 @@
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11670,22 +11674,22 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11734,19 +11738,19 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11755,15 +11759,15 @@
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11774,7 +11778,7 @@
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -11783,22 +11787,22 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11847,19 +11851,19 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -11868,15 +11872,15 @@
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11887,7 +11891,7 @@
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -11896,22 +11900,22 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11924,7 +11928,7 @@
         <v>77</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>77</v>
@@ -11960,19 +11964,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -11981,15 +11985,15 @@
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12000,7 +12004,7 @@
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12009,20 +12013,20 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12071,19 +12075,19 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
@@ -12092,15 +12096,15 @@
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12111,7 +12115,7 @@
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12123,13 +12127,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12180,19 +12184,19 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
@@ -12201,15 +12205,15 @@
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12220,7 +12224,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12232,13 +12236,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12289,19 +12293,19 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
@@ -12310,15 +12314,15 @@
         <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12329,7 +12333,7 @@
         <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12341,16 +12345,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12400,19 +12404,19 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -12421,15 +12425,15 @@
         <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12440,7 +12444,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12452,16 +12456,16 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12511,19 +12515,19 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
@@ -12532,15 +12536,15 @@
         <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12551,7 +12555,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -12563,13 +12567,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12620,19 +12624,19 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
@@ -12646,10 +12650,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12660,7 +12664,7 @@
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -12669,16 +12673,16 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12705,13 +12709,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -12729,22 +12733,22 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12755,13 +12759,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12780,16 +12784,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12840,7 +12844,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -12852,10 +12856,10 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -12866,10 +12870,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12880,7 +12884,7 @@
         <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -12892,13 +12896,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12949,13 +12953,13 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
@@ -12970,19 +12974,19 @@
         <v>77</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13001,16 +13005,16 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13060,7 +13064,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13072,7 +13076,7 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
@@ -13081,19 +13085,19 @@
         <v>77</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13106,25 +13110,25 @@
         <v>77</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13173,7 +13177,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13185,7 +13189,7 @@
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
@@ -13194,15 +13198,15 @@
         <v>77</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13210,10 +13214,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13222,16 +13226,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13243,7 +13247,7 @@
         <v>77</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>77</v>
@@ -13258,13 +13262,13 @@
         <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>77</v>
@@ -13282,22 +13286,22 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13308,10 +13312,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13322,7 +13326,7 @@
         <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -13331,16 +13335,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13379,32 +13383,32 @@
         <v>77</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13415,13 +13419,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>77</v>
@@ -13431,7 +13435,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
@@ -13440,16 +13444,16 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13500,22 +13504,22 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13526,10 +13530,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13540,7 +13544,7 @@
         <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -13552,13 +13556,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13609,13 +13613,13 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
@@ -13630,19 +13634,19 @@
         <v>77</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13661,16 +13665,16 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13708,19 +13712,19 @@
         <v>77</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13732,7 +13736,7 @@
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>77</v>
@@ -13741,15 +13745,15 @@
         <v>77</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13769,22 +13773,22 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -13833,7 +13837,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13845,7 +13849,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>77</v>
@@ -13854,15 +13858,15 @@
         <v>77</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13870,10 +13874,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>77</v>
@@ -13882,22 +13886,22 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13946,19 +13950,19 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>77</v>
@@ -13967,15 +13971,15 @@
         <v>77</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13986,7 +13990,7 @@
         <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -13995,16 +13999,16 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14031,13 +14035,13 @@
         <v>77</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>77</v>
@@ -14055,22 +14059,22 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14081,10 +14085,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14092,7 +14096,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
@@ -14104,16 +14108,16 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14164,10 +14168,10 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -14176,10 +14180,10 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14190,10 +14194,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14204,7 +14208,7 @@
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>77</v>
@@ -14216,13 +14220,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14273,13 +14277,13 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>77</v>
@@ -14294,19 +14298,19 @@
         <v>77</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14325,16 +14329,16 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14384,7 +14388,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
@@ -14396,7 +14400,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>77</v>
@@ -14405,19 +14409,19 @@
         <v>77</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -14430,25 +14434,25 @@
         <v>77</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14497,7 +14501,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14509,7 +14513,7 @@
         <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>77</v>
@@ -14518,15 +14522,15 @@
         <v>77</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14534,10 +14538,10 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>77</v>
@@ -14546,16 +14550,16 @@
         <v>77</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14582,11 +14586,11 @@
         <v>77</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>77</v>
@@ -14604,22 +14608,22 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -14630,10 +14634,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14644,7 +14648,7 @@
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>77</v>
@@ -14653,16 +14657,16 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14713,22 +14717,22 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -14739,10 +14743,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14753,7 +14757,7 @@
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>77</v>
@@ -14762,16 +14766,16 @@
         <v>77</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14822,22 +14826,22 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -14848,10 +14852,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14862,7 +14866,7 @@
         <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>77</v>
@@ -14871,16 +14875,16 @@
         <v>77</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14931,22 +14935,22 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -14957,10 +14961,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14971,7 +14975,7 @@
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>77</v>
@@ -14980,16 +14984,16 @@
         <v>77</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15040,22 +15044,22 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -15066,10 +15070,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15080,7 +15084,7 @@
         <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>77</v>
@@ -15089,16 +15093,16 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15149,22 +15153,22 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -15175,10 +15179,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15198,16 +15202,16 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15258,7 +15262,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -15270,10 +15274,10 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -15284,10 +15288,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15298,7 +15302,7 @@
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>77</v>
@@ -15310,13 +15314,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15367,13 +15371,13 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>77</v>
@@ -15388,19 +15392,19 @@
         <v>77</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -15419,16 +15423,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15478,7 +15482,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
@@ -15490,7 +15494,7 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>77</v>
@@ -15499,19 +15503,19 @@
         <v>77</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -15524,25 +15528,25 @@
         <v>77</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15591,7 +15595,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -15603,7 +15607,7 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>77</v>
@@ -15612,15 +15616,15 @@
         <v>77</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15628,10 +15632,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -15640,16 +15644,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15676,13 +15680,13 @@
         <v>77</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>77</v>
@@ -15700,22 +15704,22 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
@@ -15726,10 +15730,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15749,16 +15753,16 @@
         <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15809,7 +15813,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -15821,10 +15825,10 @@
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -15835,10 +15839,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15849,7 +15853,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
@@ -15861,13 +15865,13 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15918,13 +15922,13 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>77</v>
@@ -15939,19 +15943,19 @@
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -15970,16 +15974,16 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -16029,7 +16033,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
@@ -16041,7 +16045,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>77</v>
@@ -16050,19 +16054,19 @@
         <v>77</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16075,25 +16079,25 @@
         <v>77</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16142,7 +16146,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -16154,7 +16158,7 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>77</v>
@@ -16163,15 +16167,15 @@
         <v>77</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16179,10 +16183,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>77</v>
@@ -16191,16 +16195,16 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -16227,13 +16231,13 @@
         <v>77</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>77</v>
@@ -16251,22 +16255,22 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -16277,10 +16281,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16288,10 +16292,10 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>77</v>
@@ -16300,16 +16304,16 @@
         <v>77</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16360,22 +16364,22 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -16386,10 +16390,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16400,7 +16404,7 @@
         <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>77</v>
@@ -16409,16 +16413,16 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16469,22 +16473,22 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
